--- a/NEW HR/DONE/DE LEON, ANALITA BAYOT.xlsx
+++ b/NEW HR/DONE/DE LEON, ANALITA BAYOT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>MOURNING5/9-11,13,14,16-18/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>01/3-9/2024</t>
   </si>
 </sst>
 </file>
@@ -595,6 +604,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -630,9 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2858,7 +2867,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3266,12 +3275,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="4470" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="4470" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="K13" sqref="K13"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3293,62 +3302,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3374,18 +3383,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3432,7 +3441,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>47</v>
+        <v>49.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3442,7 +3451,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>68</v>
+        <v>76.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4884,20 +4893,22 @@
       <c r="B80" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39">
         <v>8</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="62" t="s">
+      <c r="K80" s="50" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4906,13 +4917,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4924,13 +4937,15 @@
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4942,13 +4957,15 @@
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4960,13 +4977,15 @@
         <v>45170</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4978,13 +4997,15 @@
         <v>45200</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4996,13 +5017,15 @@
         <v>45231</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5013,9 +5036,13 @@
       <c r="A87" s="40">
         <v>45261</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>6</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -5025,11 +5052,13 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45292</v>
+      <c r="A88" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5047,7 +5076,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5065,7 +5094,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5083,7 +5112,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5101,7 +5130,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5119,7 +5148,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5137,7 +5166,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5155,7 +5184,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5173,7 +5202,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5191,7 +5220,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5209,7 +5238,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5227,7 +5256,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5245,7 +5274,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5263,7 +5292,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5281,7 +5310,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5298,7 +5327,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45717</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5794,20 +5825,36 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5881,71 +5928,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>DE LEON, ANALITA BAYOT</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>43101</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="str">
+      <c r="B4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5971,18 +6018,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8048,17 +8095,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8136,17 +8183,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM('2018 LEAVE CREDITS'!$E$9,'2018 LEAVE CREDITS'!$I$9)</f>
-        <v>115</v>
+        <v>126.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
